--- a/articles/charitable-donations-do-we-care-more-about-our-close-neighbours/raw/revised_data.xlsx
+++ b/articles/charitable-donations-do-we-care-more-about-our-close-neighbours/raw/revised_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Github\eco\ecovisualisations\articles\charitable-donations-do-we-care-more-about-our-close-neighbours\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29300888-8644-453C-B642-ABCD5DA06217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CA9165-21DC-4E40-9C6A-09E8B5D94060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="-90" windowWidth="18435" windowHeight="12180" xr2:uid="{F2740A02-B99F-4489-B8D9-A5AE7C01C2F1}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{F2740A02-B99F-4489-B8D9-A5AE7C01C2F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -591,17 +591,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D1B499-945E-42C6-822F-86B75AD2A888}">
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="Q69" sqref="Q69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.953125" customWidth="1"/>
-    <col min="2" max="2" width="11.40625" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -636,7 +636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -665,7 +665,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -694,7 +694,7 @@
         <v>27.628640000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -723,7 +723,7 @@
         <v>14.96283</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -752,7 +752,7 @@
         <v>4.9058460000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -781,7 +781,7 @@
         <v>31.606829999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -810,7 +810,7 @@
         <v>4.4933050000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -845,7 +845,7 @@
         <v>561.51610000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -880,7 +880,7 @@
         <v>21.889230000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -915,7 +915,7 @@
         <v>3.855369</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -950,7 +950,7 @@
         <v>13.684430000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -985,7 +985,7 @@
         <v>6.6417599999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>8.8943510000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>11.823130000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>2.6320739999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>2.355324</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>1.385845</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>29.917359999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>17.866060000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>7.0191860000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>13.359629999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>23.850480000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>95.519069999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>72.50676</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>17.842659999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>6.0158180000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>15.23638</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>6.7226470000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>22.328340000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>10.38383</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>21.767520000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>8.9022799999999993</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>7.0311870000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>132.0515</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>3.4912719999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>4.0891149999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>11.16873</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>36.974269999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>81.947850000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>11.63489</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>57</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>31.234850000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>3.605769</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>84.563220000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>3.319582</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>3.6732840000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>42</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>6.1978309999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>47.073590000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>45.398400000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>24.810739999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>32.957610000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>99.163380000000004</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>30</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>4.2885980000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>4.1208790000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>44.446300000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>29</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>19.264690000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>29</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>87.622960000000006</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>3.3788749999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>112.901</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>1.6159829999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>46</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>64.756640000000004</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>50</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>24.15204</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>43</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>20.938829999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>43</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>16.980129999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>43</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>50.135359999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>59</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>31.42604</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>1.4492750000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>23</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>5.435581</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -2803,10 +2803,10 @@
         <v>3</v>
       </c>
       <c r="K69">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.75">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>6.1813180000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>61</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>42.389389999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>64</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>33.5578</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>0.96618349999999997</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>21</v>
       </c>
